--- a/data/uac_rooms.xlsx
+++ b/data/uac_rooms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donert/Documents/UACTech/SystemDocumentation/github/uactechdoc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB21586-D4B5-DD41-B4E9-DBC169D10FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB7AD91-689B-C248-B292-FAA8C3F29491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="7000" windowWidth="21220" windowHeight="11260" xr2:uid="{12D6D090-49DF-6B40-9B7B-626E447F1441}"/>
+    <workbookView xWindow="5340" yWindow="980" windowWidth="16980" windowHeight="11260" xr2:uid="{12D6D090-49DF-6B40-9B7B-626E447F1441}"/>
   </bookViews>
   <sheets>
     <sheet name="rooms" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="183">
   <si>
     <t>building</t>
   </si>
@@ -96,6 +96,495 @@
   </si>
   <si>
     <t>Portable</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Main electrical room</t>
+  </si>
+  <si>
+    <t>Electrical panels, fire control, telephony and network rack</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>Custodial</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>Fellowship Hall</t>
+  </si>
+  <si>
+    <t>Medium sized events, meals, children</t>
+  </si>
+  <si>
+    <t>Large rectangular room with soft divider towards the north third.</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Room 10</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Lower Lobby 16th Ave</t>
+  </si>
+  <si>
+    <t>Lower entrance hallway</t>
+  </si>
+  <si>
+    <t>hallway</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Room 1</t>
+  </si>
+  <si>
+    <t>Meeting Room and storage closets</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>Childrens Pastor Office</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Pastor Allison</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>Children's Staff Office</t>
+  </si>
+  <si>
+    <t>Open space with counters and desks</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>SE Stairs</t>
+  </si>
+  <si>
+    <t>South West Stariwell</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>South Hallway</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>SW Stairs</t>
+  </si>
+  <si>
+    <t>South East Stariwell</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Room 9</t>
+  </si>
+  <si>
+    <t>Meeting Room</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>Room 8</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Accessible Restroom</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Male Restroom</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>Elevator Shaft</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>NW Staris</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>Room 7</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Room 6</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>Master's Pantry</t>
+  </si>
+  <si>
+    <t>Food Storage</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>NE Stairs</t>
+  </si>
+  <si>
+    <t>North East Stairs</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>North Hall</t>
+  </si>
+  <si>
+    <t>North Hallway</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>Female Restroom</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>Storage/Utility</t>
+  </si>
+  <si>
+    <t>Water service entry</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>Child WC</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>Change area</t>
+  </si>
+  <si>
+    <t>Infant Room</t>
+  </si>
+  <si>
+    <t>Toddler Room</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>East Hall</t>
+  </si>
+  <si>
+    <t>East Hallway</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>Kitchen Supplies and Table storage</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Car Port</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Outer Lobby</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Lobby</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Female WC</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106 </t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Accesible WC</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Male WC</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Janitor</t>
+  </si>
+  <si>
+    <t>Janitor and Boiler system</t>
+  </si>
+  <si>
+    <t>Auditorium</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Ushers Room</t>
+  </si>
+  <si>
+    <t>Ushers and Fan Control</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Audio Storage</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Music Storage</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Office Hallway</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Counsellor's Office</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>Justin's Office</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Kesha's Office</t>
+  </si>
+  <si>
+    <t>Prayer Room</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Spare Ofice</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Mary's Office</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Photocopier</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>AV Equipment Room</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Triangle Closet</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Kitchenette</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Server Room</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Leonor's Office</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Daniel's Office</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Bosco's Office</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Balcony Seating</t>
+  </si>
+  <si>
+    <t>Balcony Closet</t>
+  </si>
+  <si>
+    <t>Audio Front Desk</t>
+  </si>
+  <si>
+    <t>Video/Lighting Desk</t>
+  </si>
+  <si>
+    <t>Bulkhead</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Balcony Cavity</t>
   </si>
 </sst>
 </file>
@@ -131,16 +620,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -161,11 +656,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00017CD1-C289-924A-B954-C24AF0138697}" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
-  <autoFilter ref="A1:E6" xr:uid="{00017CD1-C289-924A-B954-C24AF0138697}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D5C2C171-6B77-B44E-9BB5-91944553B62A}" name="building" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{0086E0C8-3715-0148-8E59-A029964D4E42}" name="room" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00017CD1-C289-924A-B954-C24AF0138697}" name="Table1" displayName="Table1" ref="A1:F82" totalsRowShown="0">
+  <autoFilter ref="A1:F82" xr:uid="{00017CD1-C289-924A-B954-C24AF0138697}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
+    <sortCondition ref="A2:A39"/>
+    <sortCondition ref="B2:B39"/>
+    <sortCondition ref="C2:C39"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D5C2C171-6B77-B44E-9BB5-91944553B62A}" name="building" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{70981DFD-2207-884C-94E3-1B39DD534C3D}" name="floor" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0086E0C8-3715-0148-8E59-A029964D4E42}" name="room" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{E71CF291-F2A7-734B-9E5E-82AB7496A1F5}" name="common_name"/>
     <tableColumn id="4" xr3:uid="{C5342176-D83C-1C43-9532-01A897351C48}" name="description"/>
     <tableColumn id="5" xr3:uid="{B16B5046-40B4-9543-8489-E76B20661B1C}" name="usage"/>
@@ -491,117 +992,1301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0680811-2A57-264B-918F-9F3A682A6445}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A82" sqref="A82:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="str">
+        <f>Table1[[#This Row],[description]]</f>
+        <v>Meeting Room and storage closets</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="str">
+        <f>Table1[[#This Row],[description]]</f>
+        <v>Storage</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E35" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1">
         <v>101</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D36" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E36" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1">
         <v>102</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D37" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E37" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1">
         <v>103</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D38" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E38" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1">
         <v>104</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E39" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>111</v>
+      </c>
+      <c r="D51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
